--- a/mcmaster_excel/Extra-Wide_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Extra-Wide_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,176 +434,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1/4"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.344"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.082"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1/16"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>95560A100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$3.05</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.344"</t>
+          <t>FlangeDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>95560A101</t>
-        </is>
-      </c>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,12 +568,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>95560A102</t>
+          <t>95560A100</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>$3.05</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -670,12 +600,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.344"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.098"</t>
+          <t>0.082"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -685,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -695,17 +625,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>95560A103</t>
+          <t>95560A101</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -727,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.344"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.098"</t>
+          <t>0.082"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -742,7 +672,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -752,17 +682,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>95560A104</t>
+          <t>95560A102</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -774,7 +704,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -809,12 +739,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>95560A105</t>
+          <t>95560A103</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -831,7 +761,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -841,12 +771,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.484"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.117"</t>
+          <t>0.098"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +786,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -866,7 +796,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>95560A106</t>
+          <t>95560A104</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -876,7 +806,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -888,7 +818,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -898,12 +828,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.484"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.117"</t>
+          <t>0.098"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -913,7 +843,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -923,17 +853,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>95560A107</t>
+          <t>95560A105</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -945,7 +875,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,12 +910,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>95560A108</t>
+          <t>95560A106</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +932,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1012,12 +942,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.500"</t>
+          <t>0.484"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.125"</t>
+          <t>0.117"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1027,7 +957,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1037,17 +967,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>95560A109</t>
+          <t>95560A107</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1059,7 +989,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1069,12 +999,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.500"</t>
+          <t>0.484"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.125"</t>
+          <t>0.117"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1084,7 +1014,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1094,17 +1024,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>95560A110</t>
+          <t>95560A108</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1116,7 +1046,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1151,12 +1081,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>95560A111</t>
+          <t>95560A109</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1173,7 +1103,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1208,17 +1138,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>95560A112</t>
+          <t>95560A110</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1230,7 +1160,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,17 +1195,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>95560A113</t>
+          <t>95560A111</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1287,7 +1217,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,12 +1252,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>95560A114</t>
+          <t>95560A112</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1354,12 +1284,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.500"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.125"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1369,7 +1299,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1379,17 +1309,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>95560A115</t>
+          <t>95560A113</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1411,12 +1341,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.500"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.125"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1426,7 +1356,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1436,17 +1366,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>95560A116</t>
+          <t>95560A114</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1458,55 +1388,169 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.656"</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.156"</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>95560A115</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.656"</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.156"</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>95560A116</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.656"</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.156"</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>5/32"</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>95560A117</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>6.46</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
